--- a/QuanLyShopBanQuatDien/Resources/Reports/revenue_by_product_report.xlsx
+++ b/QuanLyShopBanQuatDien/Resources/Reports/revenue_by_product_report.xlsx
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$VND]\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ [$VND]"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$VND]"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -170,11 +170,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -185,20 +188,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +509,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,65 +517,65 @@
     <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="11" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -587,7 +587,7 @@
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="8"/>
